--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N2">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O2">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P2">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q2">
-        <v>33.17963117898044</v>
+        <v>1.517308688846666</v>
       </c>
       <c r="R2">
-        <v>298.616680610824</v>
+        <v>13.65577819962</v>
       </c>
       <c r="S2">
-        <v>0.005149110722311508</v>
+        <v>0.0001452996777300842</v>
       </c>
       <c r="T2">
-        <v>0.005149110722311508</v>
+        <v>0.0001452996777300842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.255676</v>
       </c>
       <c r="O3">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P3">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q3">
-        <v>96.54448470676178</v>
+        <v>27.42164283656622</v>
       </c>
       <c r="R3">
-        <v>868.900362360856</v>
+        <v>246.794785529096</v>
       </c>
       <c r="S3">
-        <v>0.01498263313121319</v>
+        <v>0.002625936235830248</v>
       </c>
       <c r="T3">
-        <v>0.01498263313121319</v>
+        <v>0.002625936235830247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N4">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O4">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P4">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q4">
-        <v>193.7538287410253</v>
+        <v>127.8803182839402</v>
       </c>
       <c r="R4">
-        <v>1743.784458669228</v>
+        <v>1150.922864555462</v>
       </c>
       <c r="S4">
-        <v>0.03006844505527073</v>
+        <v>0.01224600450209037</v>
       </c>
       <c r="T4">
-        <v>0.03006844505527074</v>
+        <v>0.01224600450209037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N5">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O5">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P5">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q5">
-        <v>584.7155246868049</v>
+        <v>94.14147847179667</v>
       </c>
       <c r="R5">
-        <v>5262.439722181244</v>
+        <v>847.27330624617</v>
       </c>
       <c r="S5">
-        <v>0.09074136362233495</v>
+        <v>0.009015124333983193</v>
       </c>
       <c r="T5">
-        <v>0.09074136362233495</v>
+        <v>0.009015124333983189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.255676</v>
       </c>
       <c r="O6">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P6">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q6">
         <v>1701.37692991276</v>
@@ -818,10 +818,10 @@
         <v>15312.39236921484</v>
       </c>
       <c r="S6">
-        <v>0.2640348274292187</v>
+        <v>0.1629263191009816</v>
       </c>
       <c r="T6">
-        <v>0.2640348274292187</v>
+        <v>0.1629263191009816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N7">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O7">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P7">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q7">
-        <v>3414.470493094469</v>
+        <v>7934.339478306821</v>
       </c>
       <c r="R7">
-        <v>30730.23443785022</v>
+        <v>71409.05530476138</v>
       </c>
       <c r="S7">
-        <v>0.5298879463779875</v>
+        <v>0.7598038406247924</v>
       </c>
       <c r="T7">
-        <v>0.5298879463779875</v>
+        <v>0.7598038406247922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N8">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O8">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P8">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q8">
-        <v>43.05118517810533</v>
+        <v>5.378996536643332</v>
       </c>
       <c r="R8">
-        <v>387.4606666029479</v>
+        <v>48.41096882978999</v>
       </c>
       <c r="S8">
-        <v>0.006681066405259907</v>
+        <v>0.0005151004993450594</v>
       </c>
       <c r="T8">
-        <v>0.006681066405259907</v>
+        <v>0.0005151004993450592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.255676</v>
       </c>
       <c r="O9">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P9">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q9">
-        <v>125.2682546896013</v>
+        <v>97.21220403679244</v>
       </c>
       <c r="R9">
-        <v>1127.414292206412</v>
+        <v>874.9098363311319</v>
       </c>
       <c r="S9">
-        <v>0.01944024362139686</v>
+        <v>0.009309181461758928</v>
       </c>
       <c r="T9">
-        <v>0.01944024362139686</v>
+        <v>0.009309181461758924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N10">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O10">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P10">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q10">
-        <v>251.3991766545339</v>
+        <v>453.3472945950255</v>
       </c>
       <c r="R10">
-        <v>2262.592589890806</v>
+        <v>4080.125651355229</v>
       </c>
       <c r="S10">
-        <v>0.0390143636350066</v>
+        <v>0.04341319356348815</v>
       </c>
       <c r="T10">
-        <v>0.03901436363500661</v>
+        <v>0.04341319356348814</v>
       </c>
     </row>
   </sheetData>
